--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -662,7 +662,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -954,7 +954,7 @@
         <v>67</v>
       </c>
       <c r="F12" s="4">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="G12" s="10">
         <v>45330</v>

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>CPU</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Libre La Frite</t>
   </si>
   <si>
-    <t>DDR4 1GB</t>
-  </si>
-  <si>
     <t>DDR3 8GB</t>
   </si>
   <si>
@@ -242,6 +239,12 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>DDR4-2400 1GB</t>
+  </si>
+  <si>
+    <t>1364-1912</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4">
         <v>85</v>
@@ -729,13 +732,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -749,16 +752,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -772,19 +775,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4">
         <v>477</v>
@@ -798,13 +801,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -824,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>22</v>
@@ -839,24 +842,24 @@
         <v>45323</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4">
         <v>547</v>
@@ -873,10 +876,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>18</v>
@@ -888,7 +891,7 @@
         <v>45323</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -899,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
@@ -922,10 +925,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -939,19 +942,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4">
         <v>1021</v>
@@ -965,13 +968,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
@@ -991,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>10</v>
@@ -1017,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -1037,10 +1040,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
@@ -1052,62 +1055,88 @@
         <v>45323</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="10">
+        <v>45450</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="10"/>
+      <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:H19">

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>CPU</t>
   </si>
@@ -76,9 +76,6 @@
     <t>NanoPi NEO3</t>
   </si>
   <si>
-    <t>ARM Cortex-A55</t>
-  </si>
-  <si>
     <t>TV-Box Vontar</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>0.7</t>
   </si>
   <si>
@@ -245,6 +239,30 @@
   </si>
   <si>
     <t>1364-1912</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Amlogic S905X4-K</t>
+  </si>
+  <si>
+    <t>ANTMINER S9</t>
+  </si>
+  <si>
+    <t>Xilinx ZYNQ XC7Z010</t>
+  </si>
+  <si>
+    <t>DDR3L 2GB</t>
+  </si>
+  <si>
+    <t>DDR3L 1GB</t>
+  </si>
+  <si>
+    <t>0.766</t>
   </si>
 </sst>
 </file>
@@ -662,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,34 +709,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4">
         <v>85</v>
@@ -732,13 +750,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
@@ -752,16 +770,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -775,19 +793,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4">
         <v>477</v>
@@ -801,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -827,13 +845,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>531</v>
@@ -842,24 +860,24 @@
         <v>45323</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4">
         <v>547</v>
@@ -876,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>18</v>
@@ -891,7 +909,7 @@
         <v>45323</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -902,10 +920,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
@@ -925,10 +943,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -942,19 +960,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="4">
         <v>1021</v>
@@ -968,13 +986,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
@@ -994,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>10</v>
@@ -1017,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>11</v>
@@ -1037,16 +1055,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="F16" s="4">
         <v>15000</v>
@@ -1055,7 +1073,7 @@
         <v>45323</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1063,13 +1081,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>11</v>
@@ -1081,7 +1099,7 @@
         <v>45450</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1089,34 +1107,39 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8441</v>
+      </c>
+      <c r="G18" s="10">
+        <v>45465</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G19" s="10"/>
     </row>
@@ -1125,18 +1148,36 @@
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="10"/>
+      <c r="G21" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:H19">

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>CPU</t>
   </si>
@@ -256,13 +256,10 @@
     <t>Xilinx ZYNQ XC7Z010</t>
   </si>
   <si>
-    <t>DDR3L 2GB</t>
-  </si>
-  <si>
-    <t>DDR3L 1GB</t>
-  </si>
-  <si>
     <t>0.766</t>
+  </si>
+  <si>
+    <t>DDR3 1GB</t>
   </si>
 </sst>
 </file>
@@ -682,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1064,7 +1061,7 @@
         <v>75</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4">
         <v>15000</v>
@@ -1113,7 +1110,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>81</v>

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>CPU</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>DDR3 1GB</t>
+  </si>
+  <si>
+    <t>Radxa Zero 3W</t>
+  </si>
+  <si>
+    <t>RockChip RK3566</t>
+  </si>
+  <si>
+    <t>DDR4 1GB</t>
+  </si>
+  <si>
+    <t>13180-17870</t>
   </si>
 </sst>
 </file>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1127,34 +1139,42 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15500</v>
+      </c>
+      <c r="G19" s="10">
+        <v>45534</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -1163,18 +1183,36 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G22" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:H19">

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -692,7 +692,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,7 +1176,12 @@
       <c r="E20" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="F20" s="4">
+        <v>1036</v>
+      </c>
+      <c r="G20" s="10">
+        <v>45595</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">

--- a/Golang_SHA256_Benchmark_CPU_Test.xlsx
+++ b/Golang_SHA256_Benchmark_CPU_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="89">
   <si>
     <t>CPU</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>13180-17870</t>
+  </si>
+  <si>
+    <t>Ryzen 9 7950x</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>DDR4-3200 32GB</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,6 +1228,29 @@
       </c>
       <c r="G22" s="10"/>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="4">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10">
+        <v>45737</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:H19">
     <sortCondition ref="F1"/>
